--- a/Discharge/Station1_2021-07-19_1120.xlsx
+++ b/Discharge/Station1_2021-07-19_1120.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efarq\OneDrive\Documents\Ecuador2021\Ecuador2021\Discharge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2021/Discharge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4A04A32-0566-44B3-804C-4A2ABFD2B5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C926E60-F86A-2046-B298-D4CB6A479A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17540" yWindow="2580" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>x</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Qtotal</t>
+  </si>
+  <si>
+    <t>average velocity with 0</t>
   </si>
 </sst>
 </file>
@@ -372,15 +375,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,8 +402,11 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>70</v>
       </c>
@@ -418,8 +424,12 @@
         <f>SUM(E2:E20)</f>
         <v>0.19495999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H2">
+        <f>F2/((A14-A2)/100)/(AVERAGE(B3:B13,0,0)/100)</f>
+        <v>0.30683777239709442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>90</v>
       </c>
@@ -434,11 +444,11 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E19" si="0">(D3-D2)*(B3/100)*C3</f>
+        <f>(D3-D2)*(B3/100)*C3</f>
         <v>1.5600000000000004E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>110</v>
       </c>
@@ -453,11 +463,11 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E3:E4" si="0">(D4-D3)*(B4/100)*C4</f>
         <v>8.9999999999999943E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>120</v>
       </c>
@@ -476,7 +486,7 @@
         <v>3.5000000000000031E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>130</v>
       </c>
@@ -487,15 +497,15 @@
         <v>0.32</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D15" si="1">(A6/100+(A7/100-A6/100)/2)</f>
+        <f t="shared" ref="D6:D13" si="1">(A6/100+(A7/100-A6/100)/2)</f>
         <v>1.35</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E15" si="2">(D6-D5)*(B6/100)*C6</f>
+        <f t="shared" ref="E6:E13" si="2">(D6-D5)*(B6/100)*C6</f>
         <v>2.3040000000000022E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>140</v>
       </c>
@@ -514,7 +524,7 @@
         <v>3.1819999999999959E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>150</v>
       </c>
@@ -533,7 +543,7 @@
         <v>3.5520000000000031E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>160</v>
       </c>
@@ -552,7 +562,7 @@
         <v>3.699999999999995E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>170</v>
       </c>
@@ -571,7 +581,7 @@
         <v>3.3300000000000031E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>180</v>
       </c>
@@ -590,7 +600,7 @@
         <v>2.7360000000000023E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>190</v>
       </c>
@@ -609,7 +619,7 @@
         <v>9.5999999999999861E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>200</v>
       </c>
@@ -628,7 +638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>210</v>
       </c>
